--- a/docs/Plant.1.0.prerec1.xlsx
+++ b/docs/Plant.1.0.prerec1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="900" yWindow="8760" windowWidth="45220" windowHeight="13920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plant.1.0" sheetId="1" r:id="rId1"/>
@@ -432,21 +432,9 @@
   <authors>
     <author/>
     <author>Ethalinda Cannon</author>
+    <author>Lisa</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sample Name is a name that you choose for the sample. It can have any format, but we suggest that you make it concise, unique and consistent within your lab, and as informative as possible. Every Sample Name from a single Submitter must be unique.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B1" authorId="0">
       <text>
         <r>
@@ -456,7 +444,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Title of the sample.</t>
+          <t>Sample Name is a name that you choose for the sample. It can have any format, but we suggest that you make it short, concise, unique and consistent within your lab, and as informative as possible. Every Sample Name from a single Submitter must be unique.</t>
         </r>
       </text>
     </comment>
@@ -469,11 +457,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>A descriptive title of the sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>The accession number of the BioProject(s) to which the BioSample belongs. If the BioSample belongs to more than one BioProject, enter multiple bioproject_accession columns. A valid BioProject accession has prefix PRJN, PRJE or PRJD, e.g., PRJNA12345.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -486,7 +487,45 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic rank information about the organism below subspecies level, such as variety, form, rank etc. - FOR PLANTS SHOULD BE CULTIVAR, VARIETY, LAB STOCK, OR INBRED LINE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic information about the organism below subspecies level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -542,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,20 +608,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Type of tissue the sample was taken from.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From what part(s) of the plant was the sample taken?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -647,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -674,7 +713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -687,7 +726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -700,20 +739,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>measurement of height or length</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of height or length of sample at the time of collection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -726,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -765,7 +804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -791,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -804,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -817,20 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Description of the sample.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="1">
+    <comment ref="AH1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -840,7 +866,8 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>taxonomic rank information about the organism below subspecies level, such as variety, form, rank etc. - FOR PLANTS SHOULD BE CULTIVAR, VARIETY, LAB STOCK, OR INBRED LINE</t>
+          <t xml:space="preserve">Describe any treatment used on the specimen. 
+</t>
         </r>
         <r>
           <rPr>
@@ -854,7 +881,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="1">
+    <comment ref="AI1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Description of the sample, including anything relevent not already captured in other parts of this form</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -864,20 +904,6 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>taxonomic information about the organism below subspecies level</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
           <t>Describe any extra or missing chromosomes or extra-chromosomal elements.</t>
         </r>
         <r>
@@ -892,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="1">
+    <comment ref="AK1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -921,7 +947,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <r>
       <rPr>
@@ -1391,6 +1417,12 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Researcher fill out this row</t>
   </si>
 </sst>
 </file>
@@ -1561,8 +1593,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1614,7 +1648,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1623,6 +1657,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1631,6 +1666,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1933,7 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -2153,169 +2189,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="14.83203125" customWidth="1"/>
-    <col min="29" max="29" width="15.33203125" customWidth="1"/>
-    <col min="32" max="32" width="24.1640625" customWidth="1"/>
-    <col min="33" max="33" width="13.33203125" customWidth="1"/>
-    <col min="34" max="34" width="15.5" customWidth="1"/>
-    <col min="35" max="35" width="17.83203125" customWidth="1"/>
-    <col min="36" max="36" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" customWidth="1"/>
+    <col min="25" max="25" width="14.5" customWidth="1"/>
+    <col min="26" max="26" width="14.83203125" customWidth="1"/>
+    <col min="32" max="32" width="15.33203125" customWidth="1"/>
+    <col min="35" max="35" width="24.1640625" customWidth="1"/>
+    <col min="36" max="36" width="17.83203125" customWidth="1"/>
+    <col min="37" max="37" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:37" ht="15">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="11" customFormat="1">
-      <c r="D2" s="11" t="s">
+    <row r="2" spans="1:37" s="11" customFormat="1" ht="42">
+      <c r="A2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AK2" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="11" customFormat="1"/>
-    <row r="4" spans="1:36" s="11" customFormat="1"/>
-    <row r="5" spans="1:36" s="11" customFormat="1"/>
-    <row r="6" spans="1:36" s="11" customFormat="1"/>
-    <row r="7" spans="1:36" s="11" customFormat="1"/>
+    <row r="3" spans="1:37" s="11" customFormat="1">
+      <c r="A3" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="11" customFormat="1"/>
+    <row r="5" spans="1:37" s="11" customFormat="1"/>
+    <row r="6" spans="1:37" s="11" customFormat="1"/>
+    <row r="7" spans="1:37" s="11" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
